--- a/data/processed/resource_allocation_model3_vs_model4b.xlsx
+++ b/data/processed/resource_allocation_model3_vs_model4b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>39.30769230769231</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17.2</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>20.6</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>40.75</v>
+        <v>73</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>57.5</v>
+        <v>41</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>55.75</v>
+        <v>50.33333333333334</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13.66666666666667</v>
+        <v>61.14285714285715</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>44.8</v>
+        <v>11</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>31.16666666666667</v>
+        <v>26.83333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -737,16 +737,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>s13</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>52.2</v>
+        <v>60</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -765,11 +765,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>c</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>57</v>
+        <v>27.875</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -788,11 +788,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>i</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36.8</v>
+        <v>67</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -806,16 +806,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>s19</t>
+          <t>s13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>57.4</v>
+        <v>48.4</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -834,11 +834,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>c</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>62.71428571428572</v>
+        <v>34.85714285714285</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -852,16 +852,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s19</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>31.14285714285714</v>
+        <v>40.66666666666666</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -880,11 +880,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>c</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>73</v>
+        <v>83.75</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -903,11 +903,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>i</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>45.5</v>
+        <v>50.33333333333334</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>57.45454545454545</v>
+        <v>61.83333333333334</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -953,9 +953,32 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E23" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>s7</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20.88888888888889</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
